--- a/MacOS_tests/Cutoff_SpeedUp.xlsx
+++ b/MacOS_tests/Cutoff_SpeedUp.xlsx
@@ -5,75 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissagithinji/Desktop/UCT/CompSci 2002S/Assignment1-Parallel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissagithinji/Desktop/UCT/CompSci 2002S/GTHMEL001-PCPA1/myrepo/MacOS_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C99412-4A97-104B-AFB2-86EEBD9364C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FE5711-E7AD-4F45-ABF5-D3FDA04CD2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5B751A9F-F153-5F45-985C-A5D174E9CD3A}"/>
+    <workbookView xWindow="7640" yWindow="800" windowWidth="15420" windowHeight="16480" xr2:uid="{5B751A9F-F153-5F45-985C-A5D174E9CD3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$26</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$M$2:$M$26</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$2:$B$26</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$2:$C$26</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$E$2:$E$26</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$F$2:$F$26</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$G$2:$G$26</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$H$2:$H$26</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$I$2:$I$26</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$J$2:$J$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$26</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$L$2:$L$26</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$M$2:$M$26</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$2:$B$26</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$C$2:$C$26</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$D$2:$D$26</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$E$2:$E$26</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$F$2:$F$26</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$G$2:$G$26</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$H$2:$H$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$2:$E$26</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$I$2:$I$26</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$J$2:$J$26</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$K$2:$K$26</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$L$2:$L$26</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$M$2:$M$26</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$B$2:$B$26</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$C$2:$C$26</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$E$2:$E$26</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$F$2:$F$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$2:$F$26</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$G$2:$G$26</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$H$2:$H$26</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$I$2:$I$26</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$J$2:$J$26</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$L$2:$L$26</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$M$2:$M$26</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$B$2:$B$26</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$C$2:$C$26</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$E$2:$E$26</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$2:$G$26</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$F$2:$F$26</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$G$2:$G$26</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$H$2:$H$26</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$I$2:$I$26</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$J$2:$J$26</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$L$2:$L$26</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$M$2:$M$26</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$H$2:$H$26</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$I$2:$I$26</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$J$2:$J$26</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$2:$L$26</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -159,6 +100,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Speed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>up Graph Showing the Speedup For Different Sequential Cutoffs In The Parallel Solution Over Increasing Problem Size For MacOS</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13488342904505357"/>
+          <c:y val="2.9451137884872823E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -197,6 +176,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Cutoff = 500</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -221,7 +203,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -305,7 +287,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:f>Sheet1!$B$4:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -397,6 +379,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Cutoff = 4500</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -421,7 +406,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -505,7 +490,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$26</c:f>
+              <c:f>Sheet1!$C$4:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -597,34 +582,12 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Cutoff = 10500</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="96000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="5000"/>
-                      <a:lumOff val="95000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="55000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="45000"/>
-                      <a:lumOff val="55000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="38000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="45000"/>
-                      <a:lumOff val="55000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="9000">
-                    <a:schemeClr val="accent1"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="1"/>
-              </a:gradFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -646,7 +609,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -730,7 +693,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$26</c:f>
+              <c:f>Sheet1!$D$4:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -822,6 +785,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Cutoff = 16500</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -846,7 +812,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -930,7 +896,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$26</c:f>
+              <c:f>Sheet1!$E$4:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1022,6 +988,9 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>Cutoff = 30000</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1046,7 +1015,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1130,7 +1099,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$26</c:f>
+              <c:f>Sheet1!$F$4:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1222,6 +1191,9 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:v>Cutoff = 35000</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1246,7 +1218,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1330,7 +1302,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$26</c:f>
+              <c:f>Sheet1!$G$4:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1422,6 +1394,9 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:tx>
+            <c:v>Cutoff = 40000</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1450,7 +1425,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1534,7 +1509,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$26</c:f>
+              <c:f>Sheet1!$H$4:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1626,6 +1601,9 @@
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
+          <c:tx>
+            <c:v>Cutoff = 50000</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1654,7 +1632,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1738,7 +1716,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$26</c:f>
+              <c:f>Sheet1!$I$4:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1830,6 +1808,9 @@
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
+          <c:tx>
+            <c:v>Cutoff = 60000</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1858,7 +1839,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1942,7 +1923,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$26</c:f>
+              <c:f>Sheet1!$J$4:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2034,6 +2015,9 @@
         <c:ser>
           <c:idx val="9"/>
           <c:order val="9"/>
+          <c:tx>
+            <c:v>Cutoff = 70000</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2064,7 +2048,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2148,7 +2132,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$26</c:f>
+              <c:f>Sheet1!$K$4:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2240,9 +2224,14 @@
         <c:ser>
           <c:idx val="10"/>
           <c:order val="10"/>
+          <c:tx>
+            <c:v>Cutoff = 80000</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2268,7 +2257,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2352,7 +2341,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$26</c:f>
+              <c:f>Sheet1!$L$4:$L$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2444,6 +2433,9 @@
         <c:ser>
           <c:idx val="11"/>
           <c:order val="11"/>
+          <c:tx>
+            <c:v>Cutoff = 90000</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -2472,7 +2464,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2556,7 +2548,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$26</c:f>
+              <c:f>Sheet1!$M$4:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2677,6 +2669,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1050" b="1"/>
+                  <a:t>Grid</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1050" b="1" baseline="0"/>
+                  <a:t> Size     (units^2)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1050" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43099616224442533"/>
+              <c:y val="0.84855160772747928"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2739,6 +2799,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2878,6 +2993,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Speed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>up Graph Showing the Speedup For Different Sequential Cutoffs In The Parallel Solution Over Increasing Problem Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13488342904505357"/>
+          <c:y val="2.9451137884872823E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2916,8 +3069,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Cutoff = 500</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2940,7 +3096,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3024,7 +3180,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:f>Sheet1!$B$4:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3109,15 +3265,18 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0B5E-3048-B151-FA8363B52E32}"/>
+              <c16:uniqueId val="{00000000-BFF2-604B-BFCF-D6926D810E1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Cutoff = 4500</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3140,7 +3299,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3224,7 +3383,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$26</c:f>
+              <c:f>Sheet1!$C$4:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3309,15 +3468,221 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0B5E-3048-B151-FA8363B52E32}"/>
+              <c16:uniqueId val="{00000001-BFF2-604B-BFCF-D6926D810E1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Cutoff = 10500</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>446400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>590400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>754400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>938400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1142400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1366400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1610400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1874400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2158400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2462400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2786400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3130400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3494400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3878400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4282400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4706400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5150400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5614400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6098400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92307692307692302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2702702702702702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2564102564102502</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6037735849056598</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5254237288135499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1323529411764701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.38888888888888</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.04901960784313</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8166666666666602</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8571428571428501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1503267973856199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6516129032258</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8735632183908</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4974619289340101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2248803827751198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BFF2-604B-BFCF-D6926D810E1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Cutoff = 16500</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3340,7 +3705,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3424,7 +3789,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$26</c:f>
+              <c:f>Sheet1!$E$4:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3509,15 +3874,18 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0B5E-3048-B151-FA8363B52E32}"/>
+              <c16:uniqueId val="{00000003-BFF2-604B-BFCF-D6926D810E1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Cutoff = 30000</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3540,7 +3908,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3624,7 +3992,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$26</c:f>
+              <c:f>Sheet1!$F$4:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3709,15 +4077,18 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0B5E-3048-B151-FA8363B52E32}"/>
+              <c16:uniqueId val="{00000004-BFF2-604B-BFCF-D6926D810E1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Cutoff = 35000</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3740,7 +4111,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3824,7 +4195,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$26</c:f>
+              <c:f>Sheet1!$G$4:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3909,15 +4280,18 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0B5E-3048-B151-FA8363B52E32}"/>
+              <c16:uniqueId val="{00000005-BFF2-604B-BFCF-D6926D810E1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Cutoff = 40000</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3944,7 +4318,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4028,7 +4402,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$26</c:f>
+              <c:f>Sheet1!$H$4:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4113,15 +4487,18 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-0B5E-3048-B151-FA8363B52E32}"/>
+              <c16:uniqueId val="{00000006-BFF2-604B-BFCF-D6926D810E1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Cutoff = 50000</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -4148,7 +4525,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4232,7 +4609,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$26</c:f>
+              <c:f>Sheet1!$I$4:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4317,15 +4694,18 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-0B5E-3048-B151-FA8363B52E32}"/>
+              <c16:uniqueId val="{00000007-BFF2-604B-BFCF-D6926D810E1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="7"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>Cutoff = 60000</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -4352,7 +4732,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4436,7 +4816,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$26</c:f>
+              <c:f>Sheet1!$J$4:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4521,15 +4901,225 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-0B5E-3048-B151-FA8363B52E32}"/>
+              <c16:uniqueId val="{00000008-BFF2-604B-BFCF-D6926D810E1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>Cutoff = 70000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>446400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>590400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>754400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>938400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1142400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1366400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1610400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1874400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2158400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2462400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2786400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3130400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3494400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3878400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4282400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4706400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5150400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5614400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6098400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1428571428571399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1428571428571399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9629629629629599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1212121212121202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7441860465116199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4081632653061198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.08196721311475</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2191780821917799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0941176470588201</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2857142857142798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7321428571428501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8156028368794299</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4276315789473601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2160493827160401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.08988764044943</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2513368983957198</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2274881516587599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-BFF2-604B-BFCF-D6926D810E1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="8"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>Cutoff = 80000</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -4556,7 +5146,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4640,7 +5230,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$26</c:f>
+              <c:f>Sheet1!$L$4:$L$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4725,15 +5315,18 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-0B5E-3048-B151-FA8363B52E32}"/>
+              <c16:uniqueId val="{0000000A-BFF2-604B-BFCF-D6926D810E1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
-          <c:order val="9"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>Cutoff = 90000</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -4759,12 +5352,13 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
+            <c:name>Logarithmic Best Fit</c:name>
             <c:spPr>
               <a:ln w="34925" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -4774,7 +5368,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4858,7 +5452,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$26</c:f>
+              <c:f>Sheet1!$M$4:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4943,7 +5537,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-0B5E-3048-B151-FA8363B52E32}"/>
+              <c16:uniqueId val="{0000000B-BFF2-604B-BFCF-D6926D810E1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4979,6 +5573,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1050" b="1"/>
+                  <a:t>Grid</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1050" b="1" baseline="0"/>
+                  <a:t> Size     (units^2)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1050" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43099615179681489"/>
+              <c:y val="0.79928975745501696"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5024,6 +5686,7 @@
         <c:axId val="1548220991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5041,6 +5704,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6282,15 +7000,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6317,23 +7035,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6947E2-D181-B54C-95BC-B453529F5E79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB6F81F-D816-5244-BB3E-8D93934039FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6653,208 +7371,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0643D0D-3FE5-FA49-86E6-119FEFA91D1A}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A3:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3">
         <v>500</v>
       </c>
-      <c r="C1">
+      <c r="C3">
         <v>4500</v>
       </c>
-      <c r="D1">
+      <c r="D3">
         <v>10500</v>
       </c>
-      <c r="E1">
+      <c r="E3">
         <v>16500</v>
       </c>
-      <c r="F1">
+      <c r="F3">
         <v>30000</v>
       </c>
-      <c r="G1">
+      <c r="G3">
         <v>35000</v>
       </c>
-      <c r="H1">
+      <c r="H3">
         <v>40000</v>
       </c>
-      <c r="I1">
+      <c r="I3">
         <v>50000</v>
       </c>
-      <c r="J1">
+      <c r="J3">
         <v>60000</v>
       </c>
-      <c r="K1">
+      <c r="K3">
         <v>70000</v>
       </c>
-      <c r="L1">
+      <c r="L3">
         <v>80000</v>
       </c>
-      <c r="M1">
+      <c r="M3">
         <v>90000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2400</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>26400</v>
-      </c>
-      <c r="B3">
-        <v>0.4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0.5</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>70400</v>
+        <v>2400</v>
       </c>
       <c r="B4">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>134400</v>
+        <v>26400</v>
       </c>
       <c r="B5">
-        <v>0.71428571428571397</v>
+        <v>0.4</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.1666666666666601</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>1.3333333333333299</v>
+        <v>0.5</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>0.66666666666666596</v>
       </c>
-      <c r="J5">
-        <v>0.75</v>
-      </c>
       <c r="K5">
-        <v>1.1428571428571399</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -6865,75 +7501,75 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>218400</v>
+        <v>70400</v>
       </c>
       <c r="B6">
+        <v>1.2</v>
+      </c>
+      <c r="C6">
+        <v>0.75</v>
+      </c>
+      <c r="D6">
+        <v>0.75</v>
+      </c>
+      <c r="E6">
+        <v>0.75</v>
+      </c>
+      <c r="F6">
+        <v>0.8</v>
+      </c>
+      <c r="G6">
+        <v>0.8</v>
+      </c>
+      <c r="H6">
+        <v>0.75</v>
+      </c>
+      <c r="I6">
+        <v>0.75</v>
+      </c>
+      <c r="J6">
+        <v>1.5</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>1.125</v>
-      </c>
-      <c r="D6">
-        <v>1.3333333333333299</v>
-      </c>
-      <c r="E6">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="G6">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="H6">
+      <c r="M6">
         <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1.55555555555555</v>
-      </c>
-      <c r="J6">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="K6">
-        <v>0.46428571428571402</v>
-      </c>
-      <c r="L6">
-        <v>1.27272727272727</v>
-      </c>
-      <c r="M6">
-        <v>0.81818181818181801</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>322400</v>
+        <v>134400</v>
       </c>
       <c r="B7">
-        <v>0.85714285714285698</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="C7">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.92307692307692302</v>
+        <v>1.1666666666666601</v>
       </c>
       <c r="E7">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="F7">
-        <v>1.15384615384615</v>
+        <v>0.875</v>
       </c>
       <c r="G7">
-        <v>1.15384615384615</v>
+        <v>0.875</v>
       </c>
       <c r="H7">
-        <v>1.25</v>
+        <v>1.3333333333333299</v>
       </c>
       <c r="I7">
-        <v>0.6875</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="J7">
-        <v>0.93333333333333302</v>
+        <v>0.75</v>
       </c>
       <c r="K7">
         <v>1.1428571428571399</v>
@@ -6942,785 +7578,867 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.38888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>446400</v>
+        <v>218400</v>
       </c>
       <c r="B8">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1.1578947368421</v>
+        <v>1.125</v>
       </c>
       <c r="D8">
-        <v>2.25</v>
+        <v>1.3333333333333299</v>
       </c>
       <c r="E8">
-        <v>1.1176470588235199</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.8235294117647001</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G8">
-        <v>1.8235294117647001</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="H8">
-        <v>1.1875</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2.2666666666666599</v>
+        <v>1.55555555555555</v>
       </c>
       <c r="J8">
-        <v>1.26315789473684</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="K8">
-        <v>1.1666666666666601</v>
+        <v>0.46428571428571402</v>
       </c>
       <c r="L8">
-        <v>1.1578947368421</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="M8">
-        <v>1.1176470588235199</v>
+        <v>0.81818181818181801</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>590400</v>
+        <v>322400</v>
       </c>
       <c r="B9">
-        <v>1.8095238095238</v>
+        <v>0.85714285714285698</v>
       </c>
       <c r="C9">
-        <v>1.43243243243243</v>
+        <v>1.4</v>
       </c>
       <c r="D9">
-        <v>1.28571428571428</v>
+        <v>0.92307692307692302</v>
       </c>
       <c r="E9">
-        <v>2.4285714285714199</v>
+        <v>1.5</v>
       </c>
       <c r="F9">
-        <v>1.3043478260869501</v>
+        <v>1.15384615384615</v>
       </c>
       <c r="G9">
-        <v>1.3043478260869501</v>
+        <v>1.15384615384615</v>
       </c>
       <c r="H9">
-        <v>1.72727272727272</v>
+        <v>1.25</v>
       </c>
       <c r="I9">
-        <v>1.4761904761904701</v>
+        <v>0.6875</v>
       </c>
       <c r="J9">
-        <v>1.9523809523809501</v>
+        <v>0.93333333333333302</v>
       </c>
       <c r="K9">
-        <v>1.7</v>
+        <v>1.1428571428571399</v>
       </c>
       <c r="L9">
-        <v>1.37037037037037</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.6666666666666601</v>
+        <v>1.38888888888888</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>754400</v>
+        <v>446400</v>
       </c>
       <c r="B10">
-        <v>1.40625</v>
+        <v>1.8</v>
       </c>
       <c r="C10">
-        <v>2.55555555555555</v>
+        <v>1.1578947368421</v>
       </c>
       <c r="D10">
-        <v>2.3333333333333299</v>
+        <v>2.25</v>
       </c>
       <c r="E10">
-        <v>1.9629629629629599</v>
+        <v>1.1176470588235199</v>
       </c>
       <c r="F10">
-        <v>1.0416666666666601</v>
+        <v>1.8235294117647001</v>
       </c>
       <c r="G10">
-        <v>1.0416666666666601</v>
+        <v>1.8235294117647001</v>
       </c>
       <c r="H10">
-        <v>1.7931034482758601</v>
+        <v>1.1875</v>
       </c>
       <c r="I10">
-        <v>2.07407407407407</v>
+        <v>2.2666666666666599</v>
       </c>
       <c r="J10">
-        <v>2.04</v>
+        <v>1.26315789473684</v>
       </c>
       <c r="K10">
-        <v>1.9629629629629599</v>
+        <v>1.1666666666666601</v>
       </c>
       <c r="L10">
-        <v>2.08</v>
+        <v>1.1578947368421</v>
       </c>
       <c r="M10">
-        <v>2.13793103448275</v>
+        <v>1.1176470588235199</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>938400</v>
+        <v>590400</v>
       </c>
       <c r="B11">
-        <v>1.6756756756756701</v>
+        <v>1.8095238095238</v>
       </c>
       <c r="C11">
-        <v>2.78125</v>
+        <v>1.43243243243243</v>
       </c>
       <c r="D11">
-        <v>2.2702702702702702</v>
+        <v>1.28571428571428</v>
       </c>
       <c r="E11">
-        <v>2.02857142857142</v>
+        <v>2.4285714285714199</v>
       </c>
       <c r="F11">
-        <v>1.51428571428571</v>
+        <v>1.3043478260869501</v>
       </c>
       <c r="G11">
-        <v>1.51428571428571</v>
+        <v>1.3043478260869501</v>
       </c>
       <c r="H11">
-        <v>1.8918918918918901</v>
+        <v>1.72727272727272</v>
       </c>
       <c r="I11">
-        <v>2.4705882352941102</v>
+        <v>1.4761904761904701</v>
       </c>
       <c r="J11">
-        <v>1.6060606060606</v>
+        <v>1.9523809523809501</v>
       </c>
       <c r="K11">
-        <v>3.1212121212121202</v>
+        <v>1.7</v>
       </c>
       <c r="L11">
-        <v>2.6969696969696901</v>
+        <v>1.37037037037037</v>
       </c>
       <c r="M11">
-        <v>1.53125</v>
+        <v>1.6666666666666601</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1142400</v>
+        <v>754400</v>
       </c>
       <c r="B12">
-        <v>1.51162790697674</v>
+        <v>1.40625</v>
       </c>
       <c r="C12">
-        <v>1.8</v>
+        <v>2.55555555555555</v>
       </c>
       <c r="D12">
-        <v>2.2564102564102502</v>
+        <v>2.3333333333333299</v>
       </c>
       <c r="E12">
-        <v>1.88095238095238</v>
+        <v>1.9629629629629599</v>
       </c>
       <c r="F12">
-        <v>1.4090909090909001</v>
+        <v>1.0416666666666601</v>
       </c>
       <c r="G12">
-        <v>1.4090909090909001</v>
+        <v>1.0416666666666601</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1.7931034482758601</v>
       </c>
       <c r="I12">
-        <v>2.2105263157894699</v>
+        <v>2.07407407407407</v>
       </c>
       <c r="J12">
-        <v>2.3953488372092999</v>
+        <v>2.04</v>
       </c>
       <c r="K12">
-        <v>2.7441860465116199</v>
+        <v>1.9629629629629599</v>
       </c>
       <c r="L12">
-        <v>2.1282051282051202</v>
+        <v>2.08</v>
       </c>
       <c r="M12">
-        <v>2.5945945945945899</v>
+        <v>2.13793103448275</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1366400</v>
+        <v>938400</v>
       </c>
       <c r="B13">
-        <v>1.8541666666666601</v>
+        <v>1.6756756756756701</v>
       </c>
       <c r="C13">
-        <v>1.91489361702127</v>
+        <v>2.78125</v>
       </c>
       <c r="D13">
-        <v>2.6037735849056598</v>
+        <v>2.2702702702702702</v>
       </c>
       <c r="E13">
-        <v>1.86</v>
+        <v>2.02857142857142</v>
       </c>
       <c r="F13">
-        <v>2.16</v>
+        <v>1.51428571428571</v>
       </c>
       <c r="G13">
-        <v>2.16</v>
+        <v>1.51428571428571</v>
       </c>
       <c r="H13">
-        <v>1.9607843137254899</v>
+        <v>1.8918918918918901</v>
       </c>
       <c r="I13">
-        <v>2.3333333333333299</v>
+        <v>2.4705882352941102</v>
       </c>
       <c r="J13">
-        <v>2.2692307692307598</v>
+        <v>1.6060606060606</v>
       </c>
       <c r="K13">
-        <v>2.4081632653061198</v>
+        <v>3.1212121212121202</v>
       </c>
       <c r="L13">
-        <v>2.0943396226414999</v>
+        <v>2.6969696969696901</v>
       </c>
       <c r="M13">
-        <v>2.55555555555555</v>
+        <v>1.53125</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1610400</v>
+        <v>1142400</v>
       </c>
       <c r="B14">
-        <v>2.3584905660377302</v>
+        <v>1.51162790697674</v>
       </c>
       <c r="C14">
-        <v>2.0178571428571401</v>
+        <v>1.8</v>
       </c>
       <c r="D14">
-        <v>2.5254237288135499</v>
+        <v>2.2564102564102502</v>
       </c>
       <c r="E14">
-        <v>2.2413793103448199</v>
+        <v>1.88095238095238</v>
       </c>
       <c r="F14">
-        <v>2.3090909090909002</v>
+        <v>1.4090909090909001</v>
       </c>
       <c r="G14">
-        <v>2.3090909090909002</v>
+        <v>1.4090909090909001</v>
       </c>
       <c r="H14">
-        <v>1.9322033898305</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>2.6271186440677901</v>
+        <v>2.2105263157894699</v>
       </c>
       <c r="J14">
-        <v>1.7230769230769201</v>
+        <v>2.3953488372092999</v>
       </c>
       <c r="K14">
-        <v>2.08196721311475</v>
+        <v>2.7441860465116199</v>
       </c>
       <c r="L14">
-        <v>2.73684210526315</v>
+        <v>2.1282051282051202</v>
       </c>
       <c r="M14">
-        <v>2.8166666666666602</v>
+        <v>2.5945945945945899</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1874400</v>
+        <v>1366400</v>
       </c>
       <c r="B15">
-        <v>2.4444444444444402</v>
+        <v>1.8541666666666601</v>
       </c>
       <c r="C15">
-        <v>2.6307692307692299</v>
+        <v>1.91489361702127</v>
       </c>
       <c r="D15">
-        <v>2.1323529411764701</v>
+        <v>2.6037735849056598</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="F15">
-        <v>2.88888888888888</v>
+        <v>2.16</v>
       </c>
       <c r="G15">
-        <v>2.88888888888888</v>
+        <v>2.16</v>
       </c>
       <c r="H15">
-        <v>2.5322580645161201</v>
+        <v>1.9607843137254899</v>
       </c>
       <c r="I15">
-        <v>2.375</v>
+        <v>2.3333333333333299</v>
       </c>
       <c r="J15">
-        <v>2.6615384615384601</v>
+        <v>2.2692307692307598</v>
       </c>
       <c r="K15">
-        <v>2.8333333333333299</v>
+        <v>2.4081632653061198</v>
       </c>
       <c r="L15">
-        <v>2.5147058823529398</v>
+        <v>2.0943396226414999</v>
       </c>
       <c r="M15">
-        <v>2.6268656716417902</v>
+        <v>2.55555555555555</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2158400</v>
+        <v>1610400</v>
       </c>
       <c r="B16">
-        <v>2.23684210526315</v>
+        <v>2.3584905660377302</v>
       </c>
       <c r="C16">
-        <v>2.1733333333333298</v>
+        <v>2.0178571428571401</v>
       </c>
       <c r="D16">
-        <v>2.38888888888888</v>
+        <v>2.5254237288135499</v>
       </c>
       <c r="E16">
-        <v>2.8928571428571401</v>
+        <v>2.2413793103448199</v>
       </c>
       <c r="F16">
-        <v>2.53521126760563</v>
+        <v>2.3090909090909002</v>
       </c>
       <c r="G16">
-        <v>2.53521126760563</v>
+        <v>2.3090909090909002</v>
       </c>
       <c r="H16">
-        <v>2.0133333333333301</v>
+        <v>1.9322033898305</v>
       </c>
       <c r="I16">
-        <v>2.5657894736842102</v>
+        <v>2.6271186440677901</v>
       </c>
       <c r="J16">
-        <v>2.8028169014084501</v>
+        <v>1.7230769230769201</v>
       </c>
       <c r="K16">
-        <v>3.2191780821917799</v>
+        <v>2.08196721311475</v>
       </c>
       <c r="L16">
-        <v>2.9090909090908998</v>
+        <v>2.73684210526315</v>
       </c>
       <c r="M16">
-        <v>2.625</v>
+        <v>2.8166666666666602</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2462400</v>
+        <v>1874400</v>
       </c>
       <c r="B17">
+        <v>2.4444444444444402</v>
+      </c>
+      <c r="C17">
+        <v>2.6307692307692299</v>
+      </c>
+      <c r="D17">
+        <v>2.1323529411764701</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2.88888888888888</v>
+      </c>
+      <c r="G17">
+        <v>2.88888888888888</v>
+      </c>
+      <c r="H17">
+        <v>2.5322580645161201</v>
+      </c>
+      <c r="I17">
         <v>2.375</v>
       </c>
-      <c r="C17">
-        <v>2.9024390243902398</v>
-      </c>
-      <c r="D17">
-        <v>2.8</v>
-      </c>
-      <c r="E17">
-        <v>2.0638297872340399</v>
-      </c>
-      <c r="F17">
-        <v>2.8641975308641898</v>
-      </c>
-      <c r="G17">
-        <v>2.8641975308641898</v>
-      </c>
-      <c r="H17">
-        <v>2.3820224719101102</v>
-      </c>
-      <c r="I17">
-        <v>2.84883720930232</v>
-      </c>
       <c r="J17">
-        <v>2.88095238095238</v>
+        <v>2.6615384615384601</v>
       </c>
       <c r="K17">
-        <v>3.0941176470588201</v>
+        <v>2.8333333333333299</v>
       </c>
       <c r="L17">
-        <v>3.1686746987951802</v>
+        <v>2.5147058823529398</v>
       </c>
       <c r="M17">
-        <v>2.70588235294117</v>
+        <v>2.6268656716417902</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2786400</v>
+        <v>2158400</v>
       </c>
       <c r="B18">
-        <v>2.4</v>
+        <v>2.23684210526315</v>
       </c>
       <c r="C18">
-        <v>2.71428571428571</v>
+        <v>2.1733333333333298</v>
       </c>
       <c r="D18">
-        <v>2.3333333333333299</v>
+        <v>2.38888888888888</v>
       </c>
       <c r="E18">
-        <v>2.40707964601769</v>
+        <v>2.8928571428571401</v>
       </c>
       <c r="F18">
-        <v>2.6555555555555501</v>
+        <v>2.53521126760563</v>
       </c>
       <c r="G18">
-        <v>2.6555555555555501</v>
+        <v>2.53521126760563</v>
       </c>
       <c r="H18">
-        <v>2.85263157894736</v>
+        <v>2.0133333333333301</v>
       </c>
       <c r="I18">
-        <v>2.5384615384615299</v>
+        <v>2.5657894736842102</v>
       </c>
       <c r="J18">
-        <v>2.7127659574468002</v>
+        <v>2.8028169014084501</v>
       </c>
       <c r="K18">
-        <v>3.2857142857142798</v>
+        <v>3.2191780821917799</v>
       </c>
       <c r="L18">
-        <v>2.95</v>
+        <v>2.9090909090908998</v>
       </c>
       <c r="M18">
-        <v>2.68</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>3130400</v>
+        <v>2462400</v>
       </c>
       <c r="B19">
-        <v>2.3738317757009302</v>
+        <v>2.375</v>
       </c>
       <c r="C19">
-        <v>3.0476190476190399</v>
+        <v>2.9024390243902398</v>
       </c>
       <c r="D19">
-        <v>3.04901960784313</v>
+        <v>2.8</v>
       </c>
       <c r="E19">
-        <v>2.3394495412844001</v>
+        <v>2.0638297872340399</v>
       </c>
       <c r="F19">
-        <v>2.55555555555555</v>
+        <v>2.8641975308641898</v>
       </c>
       <c r="G19">
-        <v>2.55555555555555</v>
+        <v>2.8641975308641898</v>
       </c>
       <c r="H19">
-        <v>2.42241379310344</v>
+        <v>2.3820224719101102</v>
       </c>
       <c r="I19">
-        <v>2.9816513761467802</v>
+        <v>2.84883720930232</v>
       </c>
       <c r="J19">
-        <v>3.0263157894736801</v>
+        <v>2.88095238095238</v>
       </c>
       <c r="K19">
-        <v>2.7321428571428501</v>
+        <v>3.0941176470588201</v>
       </c>
       <c r="L19">
-        <v>2.5288461538461502</v>
+        <v>3.1686746987951802</v>
       </c>
       <c r="M19">
-        <v>2.4871794871794801</v>
+        <v>2.70588235294117</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>3494400</v>
+        <v>2786400</v>
       </c>
       <c r="B20">
-        <v>2.3852459016393399</v>
+        <v>2.4</v>
       </c>
       <c r="C20">
-        <v>3.07894736842105</v>
+        <v>2.71428571428571</v>
       </c>
       <c r="D20">
-        <v>2.8166666666666602</v>
+        <v>2.3333333333333299</v>
       </c>
       <c r="E20">
-        <v>2.78632478632478</v>
+        <v>2.40707964601769</v>
       </c>
       <c r="F20">
-        <v>2.81196581196581</v>
+        <v>2.6555555555555501</v>
       </c>
       <c r="G20">
-        <v>2.81196581196581</v>
+        <v>2.6555555555555501</v>
       </c>
       <c r="H20">
-        <v>2.0495867768595</v>
+        <v>2.85263157894736</v>
       </c>
       <c r="I20">
-        <v>2.3206106870229002</v>
+        <v>2.5384615384615299</v>
       </c>
       <c r="J20">
-        <v>2.9145299145299099</v>
+        <v>2.7127659574468002</v>
       </c>
       <c r="K20">
-        <v>2.6160000000000001</v>
+        <v>3.2857142857142798</v>
       </c>
       <c r="L20">
-        <v>2.8333333333333299</v>
+        <v>2.95</v>
       </c>
       <c r="M20">
-        <v>2.7478991596638598</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>3878400</v>
+        <v>3130400</v>
       </c>
       <c r="B21">
-        <v>2.6959459459459398</v>
+        <v>2.3738317757009302</v>
       </c>
       <c r="C21">
-        <v>2.7862595419847298</v>
+        <v>3.0476190476190399</v>
       </c>
       <c r="D21">
-        <v>2.8571428571428501</v>
+        <v>3.04901960784313</v>
       </c>
       <c r="E21">
-        <v>2.9624060150375899</v>
+        <v>2.3394495412844001</v>
       </c>
       <c r="F21">
-        <v>2.46762589928057</v>
+        <v>2.55555555555555</v>
       </c>
       <c r="G21">
-        <v>2.46762589928057</v>
+        <v>2.55555555555555</v>
       </c>
       <c r="H21">
-        <v>2.6717557251908302</v>
+        <v>2.42241379310344</v>
       </c>
       <c r="I21">
-        <v>2.6785714285714199</v>
+        <v>2.9816513761467802</v>
       </c>
       <c r="J21">
-        <v>2.87596899224806</v>
+        <v>3.0263157894736801</v>
       </c>
       <c r="K21">
-        <v>2.8156028368794299</v>
+        <v>2.7321428571428501</v>
       </c>
       <c r="L21">
-        <v>3.0307692307692302</v>
+        <v>2.5288461538461502</v>
       </c>
       <c r="M21">
-        <v>2.9699248120300701</v>
+        <v>2.4871794871794801</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>4282400</v>
+        <v>3494400</v>
       </c>
       <c r="B22">
-        <v>2.3913043478260798</v>
+        <v>2.3852459016393399</v>
       </c>
       <c r="C22">
-        <v>2.48684210526315</v>
+        <v>3.07894736842105</v>
       </c>
       <c r="D22">
-        <v>3.1503267973856199</v>
+        <v>2.8166666666666602</v>
       </c>
       <c r="E22">
-        <v>2.9793103448275802</v>
+        <v>2.78632478632478</v>
       </c>
       <c r="F22">
-        <v>2.66187050359712</v>
+        <v>2.81196581196581</v>
       </c>
       <c r="G22">
-        <v>2.66187050359712</v>
+        <v>2.81196581196581</v>
       </c>
       <c r="H22">
-        <v>2.9801324503311202</v>
+        <v>2.0495867768595</v>
       </c>
       <c r="I22">
-        <v>2.87074829931972</v>
+        <v>2.3206106870229002</v>
       </c>
       <c r="J22">
-        <v>2.9310344827586201</v>
+        <v>2.9145299145299099</v>
       </c>
       <c r="K22">
-        <v>3.4276315789473601</v>
+        <v>2.6160000000000001</v>
       </c>
       <c r="L22">
-        <v>3.2466666666666599</v>
+        <v>2.8333333333333299</v>
       </c>
       <c r="M22">
-        <v>2.9090909090908998</v>
+        <v>2.7478991596638598</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>4706400</v>
+        <v>3878400</v>
       </c>
       <c r="B23">
-        <v>2.57317073170731</v>
+        <v>2.6959459459459398</v>
       </c>
       <c r="C23">
-        <v>2.6100628930817602</v>
+        <v>2.7862595419847298</v>
       </c>
       <c r="D23">
-        <v>2.6516129032258</v>
+        <v>2.8571428571428501</v>
       </c>
       <c r="E23">
-        <v>2.8051948051947999</v>
+        <v>2.9624060150375899</v>
       </c>
       <c r="F23">
-        <v>2.5590062111801202</v>
+        <v>2.46762589928057</v>
       </c>
       <c r="G23">
-        <v>2.5590062111801202</v>
+        <v>2.46762589928057</v>
       </c>
       <c r="H23">
-        <v>2.7962962962962901</v>
+        <v>2.6717557251908302</v>
       </c>
       <c r="I23">
-        <v>2.0796460176991101</v>
+        <v>2.6785714285714199</v>
       </c>
       <c r="J23">
-        <v>2.9461077844311299</v>
+        <v>2.87596899224806</v>
       </c>
       <c r="K23">
-        <v>3.2160493827160401</v>
+        <v>2.8156028368794299</v>
       </c>
       <c r="L23">
-        <v>3.1257861635220099</v>
+        <v>3.0307692307692302</v>
       </c>
       <c r="M23">
-        <v>2.9299363057324799</v>
+        <v>2.9699248120300701</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>5150400</v>
+        <v>4282400</v>
       </c>
       <c r="B24">
-        <v>2.6182734299999999</v>
+        <v>2.3913043478260798</v>
       </c>
       <c r="C24">
-        <v>2.6592178770949699</v>
+        <v>2.48684210526315</v>
       </c>
       <c r="D24">
-        <v>2.8735632183908</v>
+        <v>3.1503267973856199</v>
       </c>
       <c r="E24">
-        <v>2.8232044198895001</v>
+        <v>2.9793103448275802</v>
       </c>
       <c r="F24">
-        <v>3.0174418604651101</v>
+        <v>2.66187050359712</v>
       </c>
       <c r="G24">
-        <v>3.0174418604651101</v>
+        <v>2.66187050359712</v>
       </c>
       <c r="H24">
-        <v>2.8720930232558102</v>
+        <v>2.9801324503311202</v>
       </c>
       <c r="I24">
-        <v>3.1279069767441801</v>
+        <v>2.87074829931972</v>
       </c>
       <c r="J24">
-        <v>3.0444444444444398</v>
+        <v>2.9310344827586201</v>
       </c>
       <c r="K24">
-        <v>3.08988764044943</v>
+        <v>3.4276315789473601</v>
       </c>
       <c r="L24">
-        <v>3.0326086956521698</v>
+        <v>3.2466666666666599</v>
       </c>
       <c r="M24">
-        <v>2.8</v>
+        <v>2.9090909090908998</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>5614400</v>
+        <v>4706400</v>
       </c>
       <c r="B25">
-        <v>2.91282051282051</v>
+        <v>2.57317073170731</v>
       </c>
       <c r="C25">
-        <v>2.8241758241758199</v>
+        <v>2.6100628930817602</v>
       </c>
       <c r="D25">
-        <v>2.4974619289340101</v>
+        <v>2.6516129032258</v>
       </c>
       <c r="E25">
-        <v>2.86486486486486</v>
+        <v>2.8051948051947999</v>
       </c>
       <c r="F25">
-        <v>3.1105263157894698</v>
+        <v>2.5590062111801202</v>
       </c>
       <c r="G25">
-        <v>3.1105263157894698</v>
+        <v>2.5590062111801202</v>
       </c>
       <c r="H25">
-        <v>2.8270270270270199</v>
+        <v>2.7962962962962901</v>
       </c>
       <c r="I25">
-        <v>2.71428571428571</v>
+        <v>2.0796460176991101</v>
       </c>
       <c r="J25">
-        <v>3.0102564102564102</v>
+        <v>2.9461077844311299</v>
       </c>
       <c r="K25">
-        <v>3.2513368983957198</v>
+        <v>3.2160493827160401</v>
       </c>
       <c r="L25">
-        <v>3.0196078431372499</v>
+        <v>3.1257861635220099</v>
       </c>
       <c r="M25">
-        <v>3.0242718446601899</v>
+        <v>2.9299363057324799</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
+        <v>5150400</v>
+      </c>
+      <c r="B26">
+        <v>2.6182734299999999</v>
+      </c>
+      <c r="C26">
+        <v>2.6592178770949699</v>
+      </c>
+      <c r="D26">
+        <v>2.8735632183908</v>
+      </c>
+      <c r="E26">
+        <v>2.8232044198895001</v>
+      </c>
+      <c r="F26">
+        <v>3.0174418604651101</v>
+      </c>
+      <c r="G26">
+        <v>3.0174418604651101</v>
+      </c>
+      <c r="H26">
+        <v>2.8720930232558102</v>
+      </c>
+      <c r="I26">
+        <v>3.1279069767441801</v>
+      </c>
+      <c r="J26">
+        <v>3.0444444444444398</v>
+      </c>
+      <c r="K26">
+        <v>3.08988764044943</v>
+      </c>
+      <c r="L26">
+        <v>3.0326086956521698</v>
+      </c>
+      <c r="M26">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5614400</v>
+      </c>
+      <c r="B27">
+        <v>2.91282051282051</v>
+      </c>
+      <c r="C27">
+        <v>2.8241758241758199</v>
+      </c>
+      <c r="D27">
+        <v>2.4974619289340101</v>
+      </c>
+      <c r="E27">
+        <v>2.86486486486486</v>
+      </c>
+      <c r="F27">
+        <v>3.1105263157894698</v>
+      </c>
+      <c r="G27">
+        <v>3.1105263157894698</v>
+      </c>
+      <c r="H27">
+        <v>2.8270270270270199</v>
+      </c>
+      <c r="I27">
+        <v>2.71428571428571</v>
+      </c>
+      <c r="J27">
+        <v>3.0102564102564102</v>
+      </c>
+      <c r="K27">
+        <v>3.2513368983957198</v>
+      </c>
+      <c r="L27">
+        <v>3.0196078431372499</v>
+      </c>
+      <c r="M27">
+        <v>3.0242718446601899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>6098400</v>
       </c>
-      <c r="B26">
+      <c r="B28">
         <v>2.6949152542372801</v>
       </c>
-      <c r="C26">
+      <c r="C28">
         <v>2.84331797235023</v>
       </c>
-      <c r="D26">
+      <c r="D28">
         <v>3.2248803827751198</v>
       </c>
-      <c r="E26">
+      <c r="E28">
         <v>2.7488151658767701</v>
       </c>
-      <c r="F26">
+      <c r="F28">
         <v>2.4864864864864802</v>
       </c>
-      <c r="G26">
+      <c r="G28">
         <v>2.4864864864864802</v>
       </c>
-      <c r="H26">
+      <c r="H28">
         <v>3.0591133004926099</v>
       </c>
-      <c r="I26">
+      <c r="I28">
         <v>2.65271966527196</v>
       </c>
-      <c r="J26">
+      <c r="J28">
         <v>2.79912663755458</v>
       </c>
-      <c r="K26">
+      <c r="K28">
         <v>3.2274881516587599</v>
       </c>
-      <c r="L26">
+      <c r="L28">
         <v>3.03255813953488</v>
       </c>
-      <c r="M26">
+      <c r="M28">
         <v>2.8523809523809498</v>
       </c>
     </row>
